--- a/public/StructureDefinition-PhrComposition.xlsx
+++ b/public/StructureDefinition-PhrComposition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T08:48:31-06:00</t>
+    <t>2022-11-07T10:20:19-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
